--- a/MemorySearch/Assets/Resources/Data/AdjustmentData.xlsx
+++ b/MemorySearch/Assets/Resources/Data/AdjustmentData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fuyu2\GameCreate\メモリサーチ\MemorySearch\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FE0FBD-B91B-4FD3-8183-76416B0665B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FA1F10-A73F-437D-A8CF-DE150EE122FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,22 +85,10 @@
     <t>Jump</t>
   </si>
   <si>
-    <t>ジャンプのデータが入ったメモリ
-飛んで段差を飛び越えれる ピョーン！</t>
-  </si>
-  <si>
     <t>DowbleJump</t>
   </si>
   <si>
-    <t>ダブルジャンプのデータが入ったメモリ
-空中でジャンプが可能 タカクトベ！</t>
-  </si>
-  <si>
     <t>Tackle</t>
-  </si>
-  <si>
-    <t>タックルのデータが入ったメモリ
-ダッシュの速さで突撃する チョトツモウシン！</t>
   </si>
   <si>
     <t>Dush</t>
@@ -112,30 +100,10 @@
     <t>AirDush</t>
   </si>
   <si>
-    <t>エアダッシュのデータが入ったメモリ
-空中で進みたい方向に突進 クウチュウホコウ！</t>
-  </si>
-  <si>
-    <t>ダッシュのデータが入ったメモリ
-通常の移動より素早く移動できる ハシレハシレ！</t>
-  </si>
-  <si>
-    <t>パンチのデータが入ったメモリ
-鉄の拳で敵を殴打するこれが テッケン！</t>
-  </si>
-  <si>
     <t>Slam</t>
   </si>
   <si>
-    <t>スラムのデータが入ったメモリ
-飛んで拳を地面に叩きつける ダンクヲイメージ！</t>
-  </si>
-  <si>
     <t>Guard</t>
-  </si>
-  <si>
-    <t>ガードのデータが入ったメモリ
-敵の攻撃を受け止める盾となる タテトナレ！</t>
   </si>
   <si>
     <t>カエル</t>
@@ -284,17 +252,6 @@
     <t>combineCost</t>
   </si>
   <si>
-    <t>３連続ラッシュ！</t>
-    <rPh sb="1" eb="3">
-      <t>レンゾク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>５連続ラッシュ！</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>Rush_Five</t>
   </si>
   <si>
@@ -308,6 +265,153 @@
     <t>Rush_Three</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>ジャンプのデータが入ったメモリ
+飛んで段差を飛び越えれる
+ピョーン！</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ダブルジャンプのデータが入ったメモリ
+空中でジャンプが可能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>タカクトベ！</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>タックルのデータが入ったメモリ
+ダッシュの速さで突撃する
+チョトツモウシン！</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>エアダッシュのデータが入ったメモリ
+空中で進みたい方向に突進
+クウチュウホコウ！</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ダッシュのデータが入ったメモリ
+通常の移動より素早く移動できる
+ハシレハシレ！</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>スラムのデータが入ったメモリ
+飛んで拳を地面に叩きつける</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ダンクヲイメージ！</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ガードのデータが入ったメモリ
+敵の攻撃を受け止める盾となる
+タテトナレ！</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>パンチのデータが入ったメモリ
+鉄の拳で敵を殴打する
+これが</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テッケン！</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>３連続パンチのデータが入ったメモリ
+鉄の拳で敵を殴打する
+これが テッケン！</t>
+    <rPh sb="1" eb="3">
+      <t>レンゾク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>５連続パンチのデータが入ったメモリ
+鉄の拳で敵を殴打する
+これが テッケン！</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
@@ -316,7 +420,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,6 +457,19 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -429,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -474,6 +591,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,7 +816,7 @@
   <dimension ref="A1:AA998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -797,8 +920,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>11</v>
+      <c r="C3" s="30" t="s">
+        <v>70</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -836,14 +959,14 @@
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>13</v>
+      <c r="C4" s="29" t="s">
+        <v>71</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -860,7 +983,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="K4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="9">
         <v>2</v>
@@ -881,23 +1004,23 @@
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>15</v>
+      <c r="C5" s="30" t="s">
+        <v>72</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G5" s="8">
         <v>5</v>
@@ -905,7 +1028,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="K5" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L5" s="9">
         <v>3</v>
@@ -926,20 +1049,20 @@
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>19</v>
+      <c r="C6" s="30" t="s">
+        <v>73</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>7</v>
@@ -950,7 +1073,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="K6" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L6" s="9">
         <v>4</v>
@@ -971,14 +1094,14 @@
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>20</v>
+      <c r="C7" s="30" t="s">
+        <v>74</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
@@ -995,7 +1118,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="K7" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L7" s="9">
         <v>5</v>
@@ -1016,14 +1139,14 @@
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>21</v>
+      <c r="C8" s="29" t="s">
+        <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
@@ -1040,7 +1163,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="K8" s="10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L8" s="9">
         <v>6</v>
@@ -1061,17 +1184,17 @@
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>23</v>
+      <c r="C9" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>10</v>
@@ -1085,7 +1208,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="K9" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L9" s="9">
         <v>7</v>
@@ -1106,14 +1229,14 @@
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>25</v>
+      <c r="C10" s="30" t="s">
+        <v>76</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>7</v>
@@ -1130,7 +1253,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="K10" s="10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L10" s="9">
         <v>8</v>
@@ -1151,20 +1274,20 @@
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>74</v>
+      <c r="C11" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>7</v>
@@ -1175,7 +1298,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="K11" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="L11" s="9">
         <v>9</v>
@@ -1196,23 +1319,23 @@
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>75</v>
+      <c r="C12" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G12" s="8">
         <v>5</v>
@@ -1220,7 +1343,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="K12" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="L12" s="9">
         <v>10</v>
@@ -4851,35 +4974,35 @@
   <sheetData>
     <row r="1" spans="1:21" ht="18.75" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:21" ht="18.75" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K2" s="7"/>
       <c r="N2" s="27" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="O2" s="26"/>
       <c r="P2" s="26"/>
@@ -4934,7 +5057,7 @@
     </row>
     <row r="5" spans="1:21" ht="18.75" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="K5" s="7"/>
       <c r="N5" s="26"/>
@@ -4948,25 +5071,25 @@
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>36</v>
-      </c>
       <c r="G6" s="8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K6" s="7"/>
       <c r="N6" s="26"/>
@@ -5023,31 +5146,31 @@
     </row>
     <row r="9" spans="1:21" ht="18.75" customHeight="1">
       <c r="A9" s="16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:21" ht="18.75" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>38</v>
-      </c>
       <c r="G10" s="8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="18.75" customHeight="1">
@@ -5082,27 +5205,27 @@
     </row>
     <row r="13" spans="1:21" ht="18.75" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="18.75" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="18.75" customHeight="1">
@@ -5128,30 +5251,30 @@
     <row r="16" spans="1:21" ht="18.75" customHeight="1"/>
     <row r="17" spans="1:7" ht="18.75" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18.75" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18.75" customHeight="1">
@@ -5180,30 +5303,30 @@
     <row r="20" spans="1:7" ht="18.75" customHeight="1"/>
     <row r="21" spans="1:7" ht="18.75" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18.75" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1">
@@ -6235,27 +6358,27 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18.75" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="18.75" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M2" s="28" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
@@ -6276,7 +6399,7 @@
         <v>3</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M3" s="26"/>
       <c r="N3" s="26"/>
@@ -6289,7 +6412,7 @@
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1">
       <c r="K4" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M4" s="26"/>
       <c r="N4" s="26"/>
@@ -6302,7 +6425,7 @@
     </row>
     <row r="5" spans="1:20" ht="18.75" customHeight="1">
       <c r="K5" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="M5" s="26"/>
       <c r="N5" s="26"/>
@@ -6325,7 +6448,7 @@
     </row>
     <row r="7" spans="1:20" ht="18.75" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>4</v>
@@ -6341,10 +6464,10 @@
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -6360,10 +6483,10 @@
     </row>
     <row r="9" spans="1:20" ht="18.75" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C9" s="7">
         <v>2</v>
@@ -6379,21 +6502,21 @@
     </row>
     <row r="10" spans="1:20" ht="18.75" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="18.75" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C11" s="19">
         <v>1</v>
@@ -6401,21 +6524,21 @@
     </row>
     <row r="12" spans="1:20" ht="18.75" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="18.75" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C13" s="19">
         <v>3</v>
@@ -6423,10 +6546,10 @@
     </row>
     <row r="14" spans="1:20" ht="18.75" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C14" s="19">
         <v>4</v>
@@ -6434,10 +6557,10 @@
     </row>
     <row r="15" spans="1:20" ht="18.75" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C15" s="7">
         <v>2</v>
@@ -6445,10 +6568,10 @@
     </row>
     <row r="16" spans="1:20" ht="18.75" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C16" s="7">
         <v>5</v>
@@ -6456,10 +6579,10 @@
     </row>
     <row r="17" spans="1:3" ht="18.75" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C17" s="7">
         <v>4</v>
@@ -6467,10 +6590,10 @@
     </row>
     <row r="18" spans="1:3" ht="18.75" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C18" s="7">
         <v>2</v>
@@ -6478,10 +6601,10 @@
     </row>
     <row r="19" spans="1:3" ht="18.75" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C19" s="7">
         <v>2</v>
@@ -6489,21 +6612,21 @@
     </row>
     <row r="20" spans="1:3" ht="18.75" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.75" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C21" s="19">
         <v>2</v>
@@ -6511,10 +6634,10 @@
     </row>
     <row r="22" spans="1:3" ht="18.75" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C22" s="19">
         <v>4</v>
@@ -6522,10 +6645,10 @@
     </row>
     <row r="23" spans="1:3" ht="18.75" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -6533,21 +6656,21 @@
     </row>
     <row r="24" spans="1:3" ht="18.75" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C25" s="19">
         <v>4</v>
@@ -6555,21 +6678,21 @@
     </row>
     <row r="26" spans="1:3" ht="18.75" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C27" s="19">
         <v>6</v>
@@ -6577,10 +6700,10 @@
     </row>
     <row r="28" spans="1:3" ht="18.75" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C28" s="19">
         <v>5</v>
@@ -6588,21 +6711,21 @@
     </row>
     <row r="29" spans="1:3" ht="18.75" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C30" s="7">
         <v>5</v>
@@ -6610,10 +6733,10 @@
     </row>
     <row r="31" spans="1:3" ht="18.75" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C31" s="7">
         <v>8</v>
@@ -6621,21 +6744,21 @@
     </row>
     <row r="32" spans="1:3" ht="18.75" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18.75" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C33" s="19">
         <v>8</v>
@@ -6643,10 +6766,10 @@
     </row>
     <row r="34" spans="1:3" ht="18.75" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C34" s="7">
         <v>12</v>
@@ -7665,25 +7788,25 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
       <c r="A1" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75">
@@ -7727,7 +7850,7 @@
       </c>
       <c r="C3" s="1" t="str">
         <f>IF(ISNA(VLOOKUP($A3,メモリデータ設定用!$A:$C,3,FALSE)),"該当データ無し",SUBSTITUTE(VLOOKUP($A3,メモリデータ設定用!$A:$C,3,FALSE),CHAR(10),"/n"))</f>
-        <v>ジャンプのデータが入ったメモリ/n飛んで段差を飛び越えれる ピョーン！</v>
+        <v>ジャンプのデータが入ったメモリ/n飛んで段差を飛び越えれる/nピョーン！</v>
       </c>
       <c r="D3" s="6">
         <f>VLOOKUP(VLOOKUP($A3,メモリデータ設定用!$A:$F,4,FALSE),メモリデータ設定用!$K:$L,2,FALSE)</f>
@@ -7757,7 +7880,7 @@
       </c>
       <c r="C4" s="1" t="str">
         <f>IF(ISNA(VLOOKUP($A4,メモリデータ設定用!$A:$C,3,FALSE)),"該当データ無し",SUBSTITUTE(VLOOKUP($A4,メモリデータ設定用!$A:$C,3,FALSE),CHAR(10),"/n"))</f>
-        <v>ダブルジャンプのデータが入ったメモリ/n空中でジャンプが可能 タカクトベ！</v>
+        <v>ダブルジャンプのデータが入ったメモリ/n空中でジャンプが可能/nタカクトベ！</v>
       </c>
       <c r="D4" s="6">
         <f>VLOOKUP(VLOOKUP($A4,メモリデータ設定用!$A:$F,4,FALSE),メモリデータ設定用!$K:$L,2,FALSE)</f>
@@ -7787,7 +7910,7 @@
       </c>
       <c r="C5" s="1" t="str">
         <f>IF(ISNA(VLOOKUP($A5,メモリデータ設定用!$A:$C,3,FALSE)),"該当データ無し",SUBSTITUTE(VLOOKUP($A5,メモリデータ設定用!$A:$C,3,FALSE),CHAR(10),"/n"))</f>
-        <v>タックルのデータが入ったメモリ/nダッシュの速さで突撃する チョトツモウシン！</v>
+        <v>タックルのデータが入ったメモリ/nダッシュの速さで突撃する/nチョトツモウシン！</v>
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP(VLOOKUP($A5,メモリデータ設定用!$A:$F,4,FALSE),メモリデータ設定用!$K:$L,2,FALSE)</f>
@@ -7817,7 +7940,7 @@
       </c>
       <c r="C6" s="1" t="str">
         <f>IF(ISNA(VLOOKUP($A6,メモリデータ設定用!$A:$C,3,FALSE)),"該当データ無し",SUBSTITUTE(VLOOKUP($A6,メモリデータ設定用!$A:$C,3,FALSE),CHAR(10),"/n"))</f>
-        <v>エアダッシュのデータが入ったメモリ/n空中で進みたい方向に突進 クウチュウホコウ！</v>
+        <v>エアダッシュのデータが入ったメモリ/n空中で進みたい方向に突進/nクウチュウホコウ！</v>
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP(VLOOKUP($A6,メモリデータ設定用!$A:$F,4,FALSE),メモリデータ設定用!$K:$L,2,FALSE)</f>
@@ -7847,7 +7970,7 @@
       </c>
       <c r="C7" s="1" t="str">
         <f>IF(ISNA(VLOOKUP($A7,メモリデータ設定用!$A:$C,3,FALSE)),"該当データ無し",SUBSTITUTE(VLOOKUP($A7,メモリデータ設定用!$A:$C,3,FALSE),CHAR(10),"/n"))</f>
-        <v>ダッシュのデータが入ったメモリ/n通常の移動より素早く移動できる ハシレハシレ！</v>
+        <v>ダッシュのデータが入ったメモリ/n通常の移動より素早く移動できる/nハシレハシレ！</v>
       </c>
       <c r="D7" s="6">
         <f>VLOOKUP(VLOOKUP($A7,メモリデータ設定用!$A:$F,4,FALSE),メモリデータ設定用!$K:$L,2,FALSE)</f>
@@ -7877,7 +8000,7 @@
       </c>
       <c r="C8" s="1" t="str">
         <f>IF(ISNA(VLOOKUP($A8,メモリデータ設定用!$A:$C,3,FALSE)),"該当データ無し",SUBSTITUTE(VLOOKUP($A8,メモリデータ設定用!$A:$C,3,FALSE),CHAR(10),"/n"))</f>
-        <v>パンチのデータが入ったメモリ/n鉄の拳で敵を殴打するこれが テッケン！</v>
+        <v>パンチのデータが入ったメモリ/n鉄の拳で敵を殴打する/nこれが テッケン！</v>
       </c>
       <c r="D8" s="6">
         <f>VLOOKUP(VLOOKUP($A8,メモリデータ設定用!$A:$F,4,FALSE),メモリデータ設定用!$K:$L,2,FALSE)</f>
@@ -7907,7 +8030,7 @@
       </c>
       <c r="C9" s="1" t="str">
         <f>IF(ISNA(VLOOKUP($A9,メモリデータ設定用!$A:$C,3,FALSE)),"該当データ無し",SUBSTITUTE(VLOOKUP($A9,メモリデータ設定用!$A:$C,3,FALSE),CHAR(10),"/n"))</f>
-        <v>スラムのデータが入ったメモリ/n飛んで拳を地面に叩きつける ダンクヲイメージ！</v>
+        <v>スラムのデータが入ったメモリ/n飛んで拳を地面に叩きつける/nダンクヲイメージ！</v>
       </c>
       <c r="D9" s="6">
         <f>VLOOKUP(VLOOKUP($A9,メモリデータ設定用!$A:$F,4,FALSE),メモリデータ設定用!$K:$L,2,FALSE)</f>
@@ -7937,7 +8060,7 @@
       </c>
       <c r="C10" s="1" t="str">
         <f>IF(ISNA(VLOOKUP($A10,メモリデータ設定用!$A:$C,3,FALSE)),"該当データ無し",SUBSTITUTE(VLOOKUP($A10,メモリデータ設定用!$A:$C,3,FALSE),CHAR(10),"/n"))</f>
-        <v>ガードのデータが入ったメモリ/n敵の攻撃を受け止める盾となる タテトナレ！</v>
+        <v>ガードのデータが入ったメモリ/n敵の攻撃を受け止める盾となる/nタテトナレ！</v>
       </c>
       <c r="D10" s="6">
         <f>VLOOKUP(VLOOKUP($A10,メモリデータ設定用!$A:$F,4,FALSE),メモリデータ設定用!$K:$L,2,FALSE)</f>
@@ -7967,7 +8090,7 @@
       </c>
       <c r="C11" s="1" t="str">
         <f>IF(ISNA(VLOOKUP($A11,メモリデータ設定用!$A:$C,3,FALSE)),"該当データ無し",SUBSTITUTE(VLOOKUP($A11,メモリデータ設定用!$A:$C,3,FALSE),CHAR(10),"/n"))</f>
-        <v>３連続ラッシュ！</v>
+        <v>３連続パンチのデータが入ったメモリ/n鉄の拳で敵を殴打する/nこれが テッケン！</v>
       </c>
       <c r="D11" s="6">
         <f>VLOOKUP(VLOOKUP($A11,メモリデータ設定用!$A:$F,4,FALSE),メモリデータ設定用!$K:$L,2,FALSE)</f>
@@ -7997,7 +8120,7 @@
       </c>
       <c r="C12" s="1" t="str">
         <f>IF(ISNA(VLOOKUP($A12,メモリデータ設定用!$A:$C,3,FALSE)),"該当データ無し",SUBSTITUTE(VLOOKUP($A12,メモリデータ設定用!$A:$C,3,FALSE),CHAR(10),"/n"))</f>
-        <v>５連続ラッシュ！</v>
+        <v>５連続パンチのデータが入ったメモリ/n鉄の拳で敵を殴打する/nこれが テッケン！</v>
       </c>
       <c r="D12" s="6">
         <f>VLOOKUP(VLOOKUP($A12,メモリデータ設定用!$A:$F,4,FALSE),メモリデータ設定用!$K:$L,2,FALSE)</f>
@@ -15400,7 +15523,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" customHeight="1">
       <c r="A1" s="22" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -15430,25 +15553,25 @@
     </row>
     <row r="2" spans="1:26" ht="18.75" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
@@ -15521,7 +15644,7 @@
     </row>
     <row r="4" spans="1:26" ht="18.75" customHeight="1">
       <c r="A4" s="23" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -15551,25 +15674,25 @@
     </row>
     <row r="5" spans="1:26" ht="18.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>36</v>
-      </c>
       <c r="G5" s="8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -15642,7 +15765,7 @@
     </row>
     <row r="7" spans="1:26" ht="18.75" customHeight="1">
       <c r="A7" s="24" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -15672,25 +15795,25 @@
     </row>
     <row r="8" spans="1:26" ht="18.75" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>38</v>
-      </c>
       <c r="G8" s="8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -15763,7 +15886,7 @@
     </row>
     <row r="10" spans="1:26" ht="18.75" customHeight="1">
       <c r="A10" s="23" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -15793,22 +15916,22 @@
     </row>
     <row r="11" spans="1:26" ht="18.75" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -15879,7 +16002,7 @@
     </row>
     <row r="13" spans="1:26" ht="18.75" customHeight="1">
       <c r="A13" s="23" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -15909,25 +16032,25 @@
     </row>
     <row r="14" spans="1:26" ht="18.75" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -16000,7 +16123,7 @@
     </row>
     <row r="16" spans="1:26" ht="18.75" customHeight="1">
       <c r="A16" s="23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -16030,25 +16153,25 @@
     </row>
     <row r="17" spans="1:26" ht="18.75" customHeight="1">
       <c r="A17" s="14" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
